--- a/ol-handback/OpenLocalizationOrg/coreapi/master/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationOrg/coreapi/master/handback-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>File Name</t>
   </si>
@@ -28,9 +28,39 @@
     <t>Publish URL</t>
   </si>
   <si>
+    <t>zh-cn</t>
+  </si>
+  <si>
     <t>Latest Handoff Date</t>
   </si>
   <si>
+    <t>Microsoft.CSharp.RuntimeBinder.Binder.yml</t>
+  </si>
+  <si>
+    <t>.yml</t>
+  </si>
+  <si>
+    <t>Handed back: in sync with en-US</t>
+  </si>
+  <si>
+    <t>2016-07-06 02:21:33</t>
+  </si>
+  <si>
+    <t>Microsoft.CSharp.RuntimeBinder.CSharpArgumentInfo.yml</t>
+  </si>
+  <si>
+    <t>Microsoft.CSharp.RuntimeBinder.CSharpArgumentInfoFlags.yml</t>
+  </si>
+  <si>
+    <t>Microsoft.CSharp.RuntimeBinder.CSharpBinderFlags.yml</t>
+  </si>
+  <si>
+    <t>Microsoft.CSharp.RuntimeBinder.RuntimeBinderException.yml</t>
+  </si>
+  <si>
+    <t>Microsoft.CSharp.RuntimeBinder.RuntimeBinderInternalCompilerException.yml</t>
+  </si>
+  <si>
     <t>Source File Name</t>
   </si>
   <si>
@@ -74,13 +104,63 @@
   </si>
   <si>
     <t>Error Detail</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Microsoft.CSharp.RuntimeBinder.Binder.xlf</t>
+  </si>
+  <si>
+    <t>Microsoft.CSharp.RuntimeBinder.Binder.0a71a9e4bf215d19bc4b2cc44375865f95c2444e.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-07-06 03:28:49</t>
+  </si>
+  <si>
+    <t>True</t>
+  </si>
+  <si>
+    <t>False</t>
+  </si>
+  <si>
+    <t>Microsoft.CSharp.RuntimeBinder.CSharpArgumentInfo.xlf</t>
+  </si>
+  <si>
+    <t>Microsoft.CSharp.RuntimeBinder.CSharpArgumentInfo.962fa9536a4b078d9b565d68aabd4695944fee51.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>Microsoft.CSharp.RuntimeBinder.CSharpArgumentInfoFlags.xlf</t>
+  </si>
+  <si>
+    <t>Microsoft.CSharp.RuntimeBinder.CSharpArgumentInfoFlags.b8a0c3eeb0012f6f3ddf36cffa9e8d962c2ac07c.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>Microsoft.CSharp.RuntimeBinder.CSharpBinderFlags.xlf</t>
+  </si>
+  <si>
+    <t>Microsoft.CSharp.RuntimeBinder.CSharpBinderFlags.ef4d630b0e31dfacc4847deef0afc2361714dc42.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>Microsoft.CSharp.RuntimeBinder.RuntimeBinderException.xlf</t>
+  </si>
+  <si>
+    <t>Microsoft.CSharp.RuntimeBinder.RuntimeBinderException.e96ce0b813afb13c48b7e948661a02ca9aeaebe6.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>Microsoft.CSharp.RuntimeBinder.RuntimeBinderInternalCompilerException.xlf</t>
+  </si>
+  <si>
+    <t>Microsoft.CSharp.RuntimeBinder.RuntimeBinderInternalCompilerException.5d20fc0b761f7cfd28c3d8ffdba31ad832efcf4b.zh-cn.xlf</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd HH:mm:ss"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -114,9 +194,10 @@
     <xf fontId="0"/>
     <xf fontId="1"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf fontId="0"/>
     <xf fontId="1" applyFont="1" xfId="1"/>
+    <xf numFmtId="164" applyNumberFormat="1" fontId="0" applyFont="1" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -127,7 +208,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:O1" headerRowCount="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:O7" headerRowCount="1">
+  <autoFilter ref="A1:O7"/>
   <tableColumns count="15">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -173,13 +255,15 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:E1" headerRowCount="0">
-  <tableColumns count="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:F7" headerRowCount="1">
+  <autoFilter ref="A1:F7"/>
+  <tableColumns count="6">
     <tableColumn id="1" name="File Name"/>
     <tableColumn id="2" name="Path And Name"/>
     <tableColumn id="3" name="Extension"/>
     <tableColumn id="4" name="Publish URL"/>
-    <tableColumn id="5" name="Latest Handoff Date"/>
+    <tableColumn id="5" name="zh-cn"/>
+    <tableColumn id="6" name="Latest Handoff Date"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -187,17 +271,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.1813910348075" customWidth="1"/>
-    <col min="2" max="2" width="15.1350729806083" customWidth="1"/>
-    <col min="3" max="3" width="9.94301605224609" customWidth="1"/>
-    <col min="4" max="4" width="11.7139423915318" customWidth="1"/>
-    <col min="5" max="5" width="18.9531533377511" customWidth="1"/>
+    <col min="1" max="1" width="40" customWidth="1"/>
+    <col min="2" max="2" width="40" customWidth="1"/>
+    <col min="3" max="3" width="12.1930160522461" customWidth="1"/>
+    <col min="4" max="4" width="13.9639423915318" customWidth="1"/>
+    <col min="5" max="5" width="29.9777047293527" customWidth="1"/>
+    <col min="6" max="6" width="21.2031533377511" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -216,8 +301,121 @@
       <c r="E1" s="0" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" display="Microsoft.CSharp.RuntimeBinder.Binder.yml" r:id="rId2"/>
+    <hyperlink ref="B3" display="Microsoft.CSharp.RuntimeBinder.CSharpArgumentInfo.yml" r:id="rId3"/>
+    <hyperlink ref="B4" display="Microsoft.CSharp.RuntimeBinder.CSharpArgumentInfoFlags.yml" r:id="rId4"/>
+    <hyperlink ref="B5" display="Microsoft.CSharp.RuntimeBinder.CSharpBinderFlags.yml" r:id="rId5"/>
+    <hyperlink ref="B6" display="Microsoft.CSharp.RuntimeBinder.RuntimeBinderException.yml" r:id="rId6"/>
+    <hyperlink ref="B7" display="Microsoft.CSharp.RuntimeBinder.RuntimeBinderInternalCompilerException.yml" r:id="rId7"/>
+  </hyperlinks>
   <headerFooter/>
   <tableParts>
     <tablePart r:id="rId1"/>
@@ -227,77 +425,373 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:O1"/>
+  <dimension ref="A1:O7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.6706946236747" customWidth="1"/>
-    <col min="2" max="2" width="13.4869144984654" customWidth="1"/>
-    <col min="3" max="3" width="6.86154392787388" customWidth="1"/>
-    <col min="4" max="4" width="11.9073017665318" customWidth="1"/>
-    <col min="5" max="5" width="7.86005565098354" customWidth="1"/>
-    <col min="6" max="6" width="22.7937404087612" customWidth="1"/>
-    <col min="7" max="7" width="27.9131600516183" customWidth="1"/>
-    <col min="8" max="8" width="10.6069859095982" customWidth="1"/>
-    <col min="9" max="9" width="24.398930140904" customWidth="1"/>
-    <col min="10" max="10" width="29.8467516217913" customWidth="1"/>
-    <col min="11" max="11" width="17.048205784389" customWidth="1"/>
-    <col min="12" max="12" width="14.4148352486747" customWidth="1"/>
-    <col min="13" max="13" width="17.4799390520368" customWidth="1"/>
-    <col min="14" max="14" width="13.6004747663225" customWidth="1"/>
-    <col min="15" max="15" width="11.4970528738839" customWidth="1"/>
+    <col min="1" max="1" width="40" customWidth="1"/>
+    <col min="2" max="2" width="15.7369144984654" customWidth="1"/>
+    <col min="3" max="3" width="29.9777047293527" customWidth="1"/>
+    <col min="4" max="4" width="14.1573017665318" customWidth="1"/>
+    <col min="5" max="5" width="10.1100556509835" customWidth="1"/>
+    <col min="6" max="6" width="40" customWidth="1"/>
+    <col min="7" max="7" width="30.1631600516183" customWidth="1"/>
+    <col min="8" max="8" width="40" customWidth="1"/>
+    <col min="9" max="9" width="40" customWidth="1"/>
+    <col min="10" max="10" width="32.0967516217913" customWidth="1"/>
+    <col min="11" max="11" width="19.298205784389" customWidth="1"/>
+    <col min="12" max="12" width="16.6648352486747" customWidth="1"/>
+    <col min="13" max="13" width="19.7299390520368" customWidth="1"/>
+    <col min="14" max="14" width="15.8504747663225" customWidth="1"/>
+    <col min="15" max="15" width="13.7470528738839" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B1" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="L1" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="M1" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="N1" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="O1" s="0" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="0" t="s">
+      <c r="B2" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K2" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="L2" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="M2" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="O2" s="0" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="B3" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K3" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="L3" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="M3" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="O3" s="0" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="B4" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K4" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="L4" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="M4" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="N4" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="O4" s="0" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="B5" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K5" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="L5" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="M5" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="N5" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="O5" s="0" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="B6" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K6" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="L6" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="M6" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="N6" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="O6" s="0" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="L1" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="M1" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="N1" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="O1" s="0" t="s">
-        <v>19</v>
+      <c r="B7" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K7" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="L7" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="M7" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="N7" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="O7" s="0" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" display="Microsoft.CSharp.RuntimeBinder.Binder.yml" r:id="rId2"/>
+    <hyperlink ref="H2" display="Microsoft.CSharp.RuntimeBinder.Binder.yml" r:id="rId3"/>
+    <hyperlink ref="A3" display="Microsoft.CSharp.RuntimeBinder.CSharpArgumentInfo.yml" r:id="rId4"/>
+    <hyperlink ref="H3" display="Microsoft.CSharp.RuntimeBinder.CSharpArgumentInfo.yml" r:id="rId5"/>
+    <hyperlink ref="A4" display="Microsoft.CSharp.RuntimeBinder.CSharpArgumentInfoFlags.yml" r:id="rId6"/>
+    <hyperlink ref="H4" display="Microsoft.CSharp.RuntimeBinder.CSharpArgumentInfoFlags.yml" r:id="rId7"/>
+    <hyperlink ref="A5" display="Microsoft.CSharp.RuntimeBinder.CSharpBinderFlags.yml" r:id="rId8"/>
+    <hyperlink ref="H5" display="Microsoft.CSharp.RuntimeBinder.CSharpBinderFlags.yml" r:id="rId9"/>
+    <hyperlink ref="A6" display="Microsoft.CSharp.RuntimeBinder.RuntimeBinderException.yml" r:id="rId10"/>
+    <hyperlink ref="H6" display="Microsoft.CSharp.RuntimeBinder.RuntimeBinderException.yml" r:id="rId11"/>
+    <hyperlink ref="A7" display="Microsoft.CSharp.RuntimeBinder.RuntimeBinderInternalCompilerException.yml" r:id="rId12"/>
+    <hyperlink ref="H7" display="Microsoft.CSharp.RuntimeBinder.RuntimeBinderInternalCompilerException.yml" r:id="rId13"/>
+  </hyperlinks>
   <headerFooter/>
   <tableParts>
     <tablePart r:id="rId1"/>
@@ -332,49 +826,49 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
